--- a/serverxlsx/catalog_category.xlsx
+++ b/serverxlsx/catalog_category.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
